--- a/examples/sources/data/unsolved/to_schedule/2019-03-26.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-26.xlsx
@@ -1507,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>43550</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>43550</v>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>43550</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" s="2">
         <v>43550</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -4854,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" s="2">
         <v>43550</v>
@@ -4895,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" s="2">
         <v>43550</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" s="2">
         <v>43550</v>
